--- a/Data/SectorsExample.xlsx
+++ b/Data/SectorsExample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Ideas" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,17 @@
     <sheet name="main oil" sheetId="9" r:id="rId10"/>
     <sheet name="sectorOil" sheetId="10" r:id="rId11"/>
     <sheet name="sectorBank" sheetId="11" r:id="rId12"/>
-    <sheet name="sectorFTSE350" sheetId="12" r:id="rId13"/>
+    <sheet name="sectorFTSE350 " sheetId="18" r:id="rId13"/>
     <sheet name="sectorMainMarket" sheetId="14" r:id="rId14"/>
     <sheet name="sectorAimMarket" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet6" sheetId="16" r:id="rId16"/>
+    <sheet name="World" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8197" uniqueCount="2583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8217" uniqueCount="2596">
   <si>
     <t>revenue</t>
   </si>
@@ -7778,6 +7778,45 @@
   </si>
   <si>
     <t>Aim</t>
+  </si>
+  <si>
+    <t>^FTMC</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>CAC</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>^IBEX</t>
+  </si>
+  <si>
+    <t>^SSMI</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>^GSPC</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>000001.ss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China </t>
+  </si>
+  <si>
+    <t>^N225</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
 </sst>
 </file>
@@ -11636,19 +11675,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D347"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D366" sqref="D366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="12" customWidth="1"/>
+    <col min="2" max="3" width="23.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
@@ -11662,7 +11701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1876</v>
       </c>
@@ -11677,436 +11716,436 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>1855</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>1856</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="12" t="s">
         <v>1857</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>1859</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>1860</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>1862</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>1863</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12" t="s">
         <v>1864</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>1865</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>1866</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="12" t="s">
         <v>1868</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>1869</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="12" t="s">
         <v>1870</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="12" t="s">
         <v>1871</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>1872</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="12" t="s">
         <v>1879</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>1880</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="12" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="12" t="s">
         <v>1881</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>1882</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="12" t="s">
         <v>1883</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>1884</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="12" t="s">
         <v>1885</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>1886</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="12" t="s">
         <v>1887</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>1888</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="12" t="s">
         <v>1889</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>1890</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="12" t="s">
         <v>1891</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="12" t="s">
         <v>1892</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>1893</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="12" t="s">
         <v>1895</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>1896</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="12" t="s">
         <v>1897</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="12" t="s">
         <v>1898</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>1899</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="12" t="s">
         <v>1900</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="12" t="s">
         <v>1901</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>1902</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="12" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="12" t="s">
         <v>1904</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>1905</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="12" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="12" t="s">
         <v>1906</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="12" t="s">
         <v>1907</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="12" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="12" t="s">
         <v>1908</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="12" t="s">
         <v>1909</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="12" t="s">
         <v>2573</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="12" t="s">
         <v>1910</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="12" t="s">
         <v>1864</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="12" t="s">
         <v>1911</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="12" t="s">
         <v>1912</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="12" t="s">
         <v>1913</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="12" t="s">
         <v>1914</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="12" t="s">
         <v>1915</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="12" t="s">
         <v>1916</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="12" t="s">
         <v>2574</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="12" t="s">
         <v>1917</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="12" t="s">
         <v>1918</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="12" t="s">
         <v>1919</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="12" t="s">
         <v>1920</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="12" t="s">
         <v>1921</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="12" t="s">
         <v>1922</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="12" t="s">
         <v>1891</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="12" t="s">
         <v>1923</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="12" t="s">
         <v>1924</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="12" t="s">
         <v>1916</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="12" t="s">
         <v>1925</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="12" t="s">
         <v>1926</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="12" t="s">
         <v>1927</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="12" t="s">
         <v>1928</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="12" t="s">
         <v>1929</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="12" t="s">
         <v>1930</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="12" t="s">
         <v>1931</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="12" t="s">
         <v>1927</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="12" t="s">
         <v>1932</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="12" t="s">
         <v>1933</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="12" t="s">
         <v>1934</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="12" t="s">
         <v>1935</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="12" t="s">
         <v>1936</v>
       </c>
     </row>
@@ -12114,4385 +12153,4385 @@
       <c r="A34" s="10" t="s">
         <v>2580</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="12" t="s">
         <v>1937</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="12" t="s">
         <v>1938</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="12" t="s">
         <v>1939</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="12" t="s">
         <v>1940</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="12" t="s">
         <v>1941</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="12" t="s">
         <v>1942</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="12" t="s">
         <v>1864</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="12" t="s">
         <v>1943</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="12" t="s">
         <v>1944</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="12" t="s">
         <v>1936</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="12" t="s">
         <v>1945</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="12" t="s">
         <v>1946</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="12" t="s">
         <v>1936</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="12" t="s">
         <v>1947</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="12" t="s">
         <v>1948</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="12" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="12" t="s">
         <v>1949</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="12" t="s">
         <v>1950</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="12" t="s">
         <v>1951</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="12" t="s">
         <v>1952</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="12" t="s">
         <v>1953</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="12" t="s">
         <v>1954</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="12" t="s">
         <v>1955</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="12" t="s">
         <v>1956</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="12" t="s">
         <v>1957</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="12" t="s">
         <v>1958</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="12" t="s">
         <v>1959</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="12" t="s">
         <v>2581</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="12" t="s">
         <v>1960</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="12" t="s">
         <v>1936</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="12" t="s">
         <v>1800</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="12" t="s">
         <v>1961</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="12" t="s">
         <v>1803</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="12" t="s">
         <v>1962</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="12" t="s">
         <v>1963</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="12" t="s">
         <v>1964</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="12" t="s">
         <v>1965</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="12" t="s">
         <v>1891</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="12" t="s">
         <v>1966</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="12" t="s">
         <v>1967</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="12" t="s">
         <v>1968</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="12" t="s">
         <v>1969</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="12" t="s">
         <v>2575</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="12" t="s">
         <v>1970</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="12" t="s">
         <v>1870</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="12" t="s">
         <v>1971</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="12" t="s">
         <v>1972</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="12" t="s">
         <v>1973</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="12" t="s">
         <v>1974</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="12" t="s">
         <v>1975</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="12" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="12" t="s">
         <v>1809</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="12" t="s">
         <v>1977</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="12" t="s">
         <v>1803</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="12" t="s">
         <v>1978</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="12" t="s">
         <v>1979</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="12" t="s">
         <v>1980</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="12" t="s">
         <v>1981</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="12" t="s">
         <v>1982</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="12" t="s">
         <v>1983</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="12" t="s">
         <v>1984</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="12" t="s">
         <v>1985</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="12" t="s">
         <v>1986</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="12" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="12" t="s">
         <v>1987</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="12" t="s">
         <v>1988</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="12" t="s">
         <v>1989</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="12" t="s">
         <v>1990</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="12" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="12" t="s">
         <v>1991</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="12" t="s">
         <v>1992</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="12" t="s">
         <v>1993</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="12" t="s">
         <v>1994</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="12" t="s">
         <v>1995</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="12" t="s">
         <v>1996</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="12" t="s">
         <v>1997</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="12" t="s">
         <v>1998</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="12" t="s">
         <v>1999</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="12" t="s">
         <v>2000</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="12" t="s">
         <v>2001</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="12" t="s">
         <v>2002</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="12" t="s">
         <v>1927</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="12" t="s">
         <v>2003</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="12" t="s">
         <v>2004</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="12" t="s">
         <v>1982</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="12" t="s">
         <v>2005</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="12" t="s">
         <v>2006</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="12" t="s">
         <v>2007</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="12" t="s">
         <v>2008</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="12" t="s">
         <v>2009</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="12" t="s">
         <v>1918</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="12" t="s">
         <v>2010</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="12" t="s">
         <v>2011</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="12" t="s">
         <v>2012</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="12" t="s">
         <v>2013</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="12" t="s">
         <v>2014</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="12" t="s">
         <v>2015</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="12" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="12" t="s">
         <v>2016</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="12" t="s">
         <v>2017</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="12" t="s">
         <v>2018</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="12" t="s">
         <v>2019</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="12" t="s">
         <v>2020</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="12" t="s">
         <v>2021</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="12" t="s">
         <v>2022</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="12" t="s">
         <v>2023</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="12" t="s">
         <v>1936</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="12" t="s">
         <v>2024</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="12" t="s">
         <v>2025</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="12" t="s">
         <v>1891</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="12" t="s">
         <v>2026</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="12" t="s">
         <v>2027</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="12" t="s">
         <v>1936</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="12" t="s">
         <v>2028</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="12" t="s">
         <v>2029</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="12" t="s">
         <v>2030</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="12" t="s">
         <v>2031</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="12" t="s">
         <v>2032</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="12" t="s">
         <v>2033</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="12" t="s">
         <v>2034</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="12" t="s">
         <v>1982</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="12" t="s">
         <v>2035</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="12" t="s">
         <v>2036</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="12" t="s">
         <v>1803</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="12" t="s">
         <v>2037</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="12" t="s">
         <v>2038</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="12" t="s">
         <v>1900</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="12" t="s">
         <v>2039</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="12" t="s">
         <v>2040</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="12" t="s">
         <v>2041</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="12" t="s">
         <v>2042</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="12" t="s">
         <v>2043</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="12" t="s">
         <v>2044</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="12" t="s">
         <v>1959</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="12" t="s">
         <v>2045</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="12" t="s">
         <v>2046</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="12" t="s">
         <v>1864</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="12" t="s">
         <v>2576</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="12" t="s">
         <v>2047</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="12" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="12" t="s">
         <v>2048</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="12" t="s">
         <v>2049</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="12" t="s">
         <v>2050</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="12" t="s">
         <v>2051</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="12" t="s">
         <v>2018</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="12" t="s">
         <v>2052</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="12" t="s">
         <v>2053</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="12" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="12" t="s">
         <v>1852</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="12" t="s">
         <v>2054</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="12" t="s">
         <v>2055</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="12" t="s">
         <v>2056</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="12" t="s">
         <v>2057</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="12" t="s">
         <v>2058</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="12" t="s">
         <v>2059</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="12" t="s">
         <v>2060</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="12" t="s">
         <v>2061</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="12" t="s">
         <v>2062</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="12" t="s">
         <v>2063</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="12" t="s">
         <v>2064</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="12" t="s">
         <v>2065</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="12" t="s">
         <v>2066</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="12" t="s">
         <v>1803</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="12" t="s">
         <v>2067</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="12" t="s">
         <v>2068</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="12" t="s">
         <v>1857</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="12" t="s">
         <v>2069</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="12" t="s">
         <v>2070</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="12" t="s">
         <v>2071</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="12" t="s">
         <v>2072</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="12" t="s">
         <v>2073</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="12" t="s">
         <v>2074</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="12" t="s">
         <v>2075</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="12" t="s">
         <v>2076</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="12" t="s">
         <v>2077</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="12" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="12" t="s">
         <v>2078</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="12" t="s">
         <v>2079</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="12" t="s">
         <v>2080</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="12" t="s">
         <v>2081</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="12" t="s">
         <v>2082</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="12" t="s">
         <v>2083</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="12" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="12" t="s">
         <v>2084</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="12" t="s">
         <v>2085</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="12" t="s">
         <v>1936</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="12" t="s">
         <v>2086</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="12" t="s">
         <v>2087</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="12" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="12" t="s">
         <v>2088</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="12" t="s">
         <v>2089</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="12" t="s">
         <v>2090</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="12" t="s">
         <v>2091</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="12" t="s">
         <v>2092</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="12" t="s">
         <v>2093</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="12" t="s">
         <v>2094</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="12" t="s">
         <v>2095</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="12" t="s">
         <v>2096</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="12" t="s">
         <v>2097</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="12" t="s">
         <v>2098</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="12" t="s">
         <v>2099</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="12" t="s">
         <v>2055</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="12" t="s">
         <v>2100</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="12" t="s">
         <v>2101</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="12" t="s">
         <v>2102</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="12" t="s">
         <v>2103</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="12" t="s">
         <v>2104</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="12" t="s">
         <v>2105</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="12" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="12" t="s">
         <v>2106</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="12" t="s">
         <v>2107</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="12" t="s">
         <v>1857</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="12" t="s">
         <v>2108</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="12" t="s">
         <v>2109</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="12" t="s">
         <v>2110</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="12" t="s">
         <v>2111</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="12" t="s">
         <v>1916</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="12" t="s">
         <v>2112</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="12" t="s">
         <v>2113</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="12" t="s">
         <v>2114</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="12" t="s">
         <v>2115</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="12" t="s">
         <v>2116</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="12" t="s">
         <v>2117</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="12" t="s">
         <v>2118</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="12" t="s">
         <v>2119</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="12" t="s">
         <v>2120</v>
       </c>
       <c r="C121" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="12" t="s">
         <v>2121</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="12" t="s">
         <v>2122</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="12" t="s">
         <v>2123</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="12" t="s">
         <v>2124</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="12" t="s">
         <v>2125</v>
       </c>
       <c r="C123" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="12" t="s">
         <v>1900</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="12" t="s">
         <v>2126</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="12" t="s">
         <v>2127</v>
       </c>
       <c r="C124" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="12" t="s">
         <v>2128</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="12" t="s">
         <v>2129</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="12" t="s">
         <v>2130</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="12" t="s">
         <v>2055</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="12" t="s">
         <v>2131</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="12" t="s">
         <v>2132</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="12" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="12" t="s">
         <v>2133</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="12" t="s">
         <v>2134</v>
       </c>
       <c r="C127" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="12" t="s">
         <v>1982</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="12" t="s">
         <v>2135</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="12" t="s">
         <v>2136</v>
       </c>
       <c r="C128" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="12" t="s">
         <v>2137</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="12" t="s">
         <v>2138</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="12" t="s">
         <v>2139</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="12" t="s">
         <v>2140</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="12" t="s">
         <v>1891</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="12" t="s">
         <v>2141</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="12" t="s">
         <v>2142</v>
       </c>
       <c r="C131" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="12" t="s">
         <v>2143</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="12" t="s">
         <v>2144</v>
       </c>
       <c r="C132" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="12" t="s">
         <v>2145</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="12" t="s">
         <v>2146</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="12" t="s">
         <v>1959</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="12" t="s">
         <v>2147</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="12" t="s">
         <v>2148</v>
       </c>
       <c r="C134" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="12" t="s">
         <v>2149</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="12" t="s">
         <v>2150</v>
       </c>
       <c r="C135" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="12" t="s">
         <v>2151</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="12" t="s">
         <v>2152</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="12" t="s">
         <v>2153</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="12" t="s">
         <v>2154</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="12" t="s">
         <v>1864</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="12" t="s">
         <v>2155</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="12" t="s">
         <v>2156</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="12" t="s">
         <v>2157</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="12" t="s">
         <v>2158</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="12" t="s">
         <v>2159</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="12" t="s">
         <v>2160</v>
       </c>
       <c r="C140" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="12" t="s">
         <v>2161</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="12" t="s">
         <v>2162</v>
       </c>
       <c r="C141" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="12" t="s">
         <v>2163</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="12" t="s">
         <v>2164</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="12" t="s">
         <v>2165</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="12" t="s">
         <v>2166</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="12" t="s">
         <v>1900</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="12" t="s">
         <v>2167</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="12" t="s">
         <v>2168</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="12" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="12" t="s">
         <v>2169</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="12" t="s">
         <v>2170</v>
       </c>
       <c r="C145" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="12" t="s">
         <v>1891</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="12" t="s">
         <v>2171</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="12" t="s">
         <v>2172</v>
       </c>
       <c r="C146" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="12" t="s">
         <v>1864</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="12" t="s">
         <v>2173</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="12" t="s">
         <v>2174</v>
       </c>
       <c r="C147" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="12" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="12" t="s">
         <v>2175</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="12" t="s">
         <v>2176</v>
       </c>
       <c r="C148" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="12" t="s">
         <v>2177</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="12" t="s">
         <v>2178</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="12" t="s">
         <v>2179</v>
       </c>
       <c r="C149" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="12" t="s">
         <v>2180</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="12" t="s">
         <v>2181</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="12" t="s">
         <v>2182</v>
       </c>
       <c r="C150" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="12" t="s">
         <v>1927</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="12" t="s">
         <v>1825</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="12" t="s">
         <v>2183</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="12" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="12" t="s">
         <v>2185</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="12" t="s">
         <v>2186</v>
       </c>
       <c r="C152" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="12" t="s">
         <v>2030</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="12" t="s">
         <v>2187</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="12" t="s">
         <v>2188</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="12" t="s">
         <v>2189</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="12" t="s">
         <v>2190</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="12" t="s">
         <v>2191</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="12" t="s">
         <v>2192</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="12" t="s">
         <v>1959</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" s="12" t="s">
         <v>2193</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="12" t="s">
         <v>2194</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="12" t="s">
         <v>1891</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="12" t="s">
         <v>2195</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="12" t="s">
         <v>2196</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="12" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="12" t="s">
         <v>2197</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="12" t="s">
         <v>2198</v>
       </c>
       <c r="C158" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="12" t="s">
         <v>1857</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="12" t="s">
         <v>2199</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="12" t="s">
         <v>2200</v>
       </c>
       <c r="C159" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="12" t="s">
         <v>1870</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="12" t="s">
         <v>2201</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="12" t="s">
         <v>2202</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="12" t="s">
         <v>2203</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="12" t="s">
         <v>2204</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="12" t="s">
         <v>2205</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="12" t="s">
         <v>2206</v>
       </c>
       <c r="C162" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="12" t="s">
         <v>2207</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="12" t="s">
         <v>2208</v>
       </c>
       <c r="C163" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="12" t="s">
         <v>2055</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="12" t="s">
         <v>2209</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="12" t="s">
         <v>2210</v>
       </c>
       <c r="C164" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="12" t="s">
         <v>2211</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="12" t="s">
         <v>2212</v>
       </c>
       <c r="C165" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="12" t="s">
         <v>2213</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="12" t="s">
         <v>2214</v>
       </c>
       <c r="C166" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" s="12" t="s">
         <v>2215</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="12" t="s">
         <v>2216</v>
       </c>
       <c r="C167" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" s="12" t="s">
         <v>2217</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="12" t="s">
         <v>2218</v>
       </c>
       <c r="C168" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="12" t="s">
         <v>1857</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="12" t="s">
         <v>2219</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="12" t="s">
         <v>2220</v>
       </c>
       <c r="C169" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="12" t="s">
         <v>2221</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="12" t="s">
         <v>2222</v>
       </c>
       <c r="C170" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="12" t="s">
         <v>2223</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="12" t="s">
         <v>2224</v>
       </c>
       <c r="C171" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="12" t="s">
         <v>2000</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="12" t="s">
         <v>2225</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="12" t="s">
         <v>2226</v>
       </c>
       <c r="C172" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="12" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="12" t="s">
         <v>2227</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="12" t="s">
         <v>2228</v>
       </c>
       <c r="C173" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="12" t="s">
         <v>1916</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="12" t="s">
         <v>2229</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="12" t="s">
         <v>2230</v>
       </c>
       <c r="C174" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="12" t="s">
         <v>2231</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="12" t="s">
         <v>2232</v>
       </c>
       <c r="C175" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" s="12" t="s">
         <v>2233</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="12" t="s">
         <v>2234</v>
       </c>
       <c r="C176" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="12" t="s">
         <v>2235</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="12" t="s">
         <v>2236</v>
       </c>
       <c r="C177" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" s="12" t="s">
         <v>2237</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="12" t="s">
         <v>2238</v>
       </c>
       <c r="C178" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="12" t="s">
         <v>2239</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="12" t="s">
         <v>2240</v>
       </c>
       <c r="C179" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="12" t="s">
         <v>2241</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="12" t="s">
         <v>2242</v>
       </c>
       <c r="C180" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" s="12" t="s">
         <v>2243</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="12" t="s">
         <v>2244</v>
       </c>
       <c r="C181" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="12" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="12" t="s">
         <v>2245</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="12" t="s">
         <v>2246</v>
       </c>
       <c r="C182" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="12" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="12" t="s">
         <v>2247</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="12" t="s">
         <v>2248</v>
       </c>
       <c r="C183" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="12" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" s="12" t="s">
         <v>2249</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="12" t="s">
         <v>2250</v>
       </c>
       <c r="C184" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="12" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="12" t="s">
         <v>2251</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="12" t="s">
         <v>2252</v>
       </c>
       <c r="C185" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="12" t="s">
         <v>1864</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="12" t="s">
         <v>2253</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="12" t="s">
         <v>2254</v>
       </c>
       <c r="C186" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="12" t="s">
         <v>2255</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="12" t="s">
         <v>2256</v>
       </c>
       <c r="C187" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="12" t="s">
         <v>1927</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="12" t="s">
         <v>2257</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="12" t="s">
         <v>2258</v>
       </c>
       <c r="C188" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="12" t="s">
         <v>2259</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="12" t="s">
         <v>2260</v>
       </c>
       <c r="C189" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="12" t="s">
         <v>1927</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="12" t="s">
         <v>2261</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="12" t="s">
         <v>2262</v>
       </c>
       <c r="C190" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" s="12" t="s">
         <v>2263</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="12" t="s">
         <v>2264</v>
       </c>
       <c r="C191" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" s="12" t="s">
         <v>2265</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="12" t="s">
         <v>2266</v>
       </c>
       <c r="C192" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="12" t="s">
         <v>2267</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="12" t="s">
         <v>2268</v>
       </c>
       <c r="C193" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="12" t="s">
         <v>2269</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="12" t="s">
         <v>2270</v>
       </c>
       <c r="C194" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="12" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" s="12" t="s">
         <v>2271</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="12" t="s">
         <v>2272</v>
       </c>
       <c r="C195" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="12" t="s">
         <v>2030</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="12" t="s">
         <v>2273</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="12" t="s">
         <v>2274</v>
       </c>
       <c r="C196" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="12" t="s">
         <v>2275</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="12" t="s">
         <v>2276</v>
       </c>
       <c r="C197" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="12" t="s">
         <v>1936</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="12" t="s">
         <v>2277</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="12" t="s">
         <v>2278</v>
       </c>
       <c r="C198" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="12" t="s">
         <v>2279</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="12" t="s">
         <v>2280</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="12" t="s">
         <v>2281</v>
       </c>
       <c r="C199" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="12" t="s">
         <v>1918</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="12" t="s">
         <v>2282</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="12" t="s">
         <v>2283</v>
       </c>
       <c r="C200" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="12" t="s">
         <v>1959</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="12" t="s">
         <v>2284</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="12" t="s">
         <v>2285</v>
       </c>
       <c r="C201" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="12" t="s">
         <v>2286</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="12" t="s">
         <v>2287</v>
       </c>
       <c r="C202" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="12" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="12" t="s">
         <v>2288</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="12" t="s">
         <v>2289</v>
       </c>
       <c r="C203" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="12" t="s">
         <v>2290</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="12" t="s">
         <v>2291</v>
       </c>
       <c r="C204" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="12" t="s">
         <v>2073</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="12" t="s">
         <v>2292</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="12" t="s">
         <v>2293</v>
       </c>
       <c r="C205" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="12" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="12" t="s">
         <v>2294</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="12" t="s">
         <v>2295</v>
       </c>
       <c r="C206" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="12" t="s">
         <v>2296</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="12" t="s">
         <v>2297</v>
       </c>
       <c r="C207" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="12" t="s">
         <v>1959</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="12" t="s">
         <v>2298</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="12" t="s">
         <v>2299</v>
       </c>
       <c r="C208" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="12" t="s">
         <v>2300</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="12" t="s">
         <v>2301</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="12" t="s">
         <v>2302</v>
       </c>
       <c r="C209" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" s="12" t="s">
         <v>2303</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="12" t="s">
         <v>2304</v>
       </c>
       <c r="C210" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="12" t="s">
         <v>2055</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="12" t="s">
         <v>2577</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="12" t="s">
         <v>2305</v>
       </c>
       <c r="C211" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="12" t="s">
         <v>1993</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="12" t="s">
         <v>2306</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="12" t="s">
         <v>2307</v>
       </c>
       <c r="C212" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="12" t="s">
         <v>2308</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="12" t="s">
         <v>2309</v>
       </c>
       <c r="C213" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="12" t="s">
         <v>2310</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="12" t="s">
         <v>2311</v>
       </c>
       <c r="C214" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="12" t="s">
         <v>2312</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="12" t="s">
         <v>2313</v>
       </c>
       <c r="C215" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="12" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="12" t="s">
         <v>2314</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="12" t="s">
         <v>2315</v>
       </c>
       <c r="C216" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="12" t="s">
         <v>2316</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="12" t="s">
         <v>2317</v>
       </c>
       <c r="C217" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="12" t="s">
         <v>2279</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" s="12" t="s">
         <v>2318</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="12" t="s">
         <v>2319</v>
       </c>
       <c r="C218" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="12" t="s">
         <v>1913</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="12" t="s">
         <v>2320</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="12" t="s">
         <v>2321</v>
       </c>
       <c r="C219" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="12" t="s">
         <v>1927</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" s="12" t="s">
         <v>2322</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="12" t="s">
         <v>2323</v>
       </c>
       <c r="C220" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="12" t="s">
         <v>2062</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" s="12" t="s">
         <v>2324</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="12" t="s">
         <v>2325</v>
       </c>
       <c r="C221" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" s="12" t="s">
         <v>2326</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="12" t="s">
         <v>2327</v>
       </c>
       <c r="C222" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223" s="12" t="s">
         <v>2328</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="12" t="s">
         <v>2329</v>
       </c>
       <c r="C223" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="12" t="s">
         <v>1927</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" s="12" t="s">
         <v>2330</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="12" t="s">
         <v>2331</v>
       </c>
       <c r="C224" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225" s="12" t="s">
         <v>2332</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="12" t="s">
         <v>2333</v>
       </c>
       <c r="C225" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="12" t="s">
         <v>1857</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226" s="12" t="s">
         <v>2334</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="12" t="s">
         <v>2335</v>
       </c>
       <c r="C226" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" s="12" t="s">
         <v>2336</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="12" t="s">
         <v>2337</v>
       </c>
       <c r="C227" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" s="12" t="s">
         <v>2338</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="12" t="s">
         <v>2339</v>
       </c>
       <c r="C228" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="12" t="s">
         <v>1936</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229" s="12" t="s">
         <v>2340</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="12" t="s">
         <v>2341</v>
       </c>
       <c r="C229" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230" s="12" t="s">
         <v>1837</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="12" t="s">
         <v>2342</v>
       </c>
       <c r="C230" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="12" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231" s="12" t="s">
         <v>2343</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="12" t="s">
         <v>2344</v>
       </c>
       <c r="C231" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="12" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232" s="12" t="s">
         <v>2345</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="12" t="s">
         <v>2346</v>
       </c>
       <c r="C232" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="12" t="s">
         <v>1864</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" s="12" t="s">
         <v>2347</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="12" t="s">
         <v>2348</v>
       </c>
       <c r="C233" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="12" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234" s="12" t="s">
         <v>2349</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="12" t="s">
         <v>2350</v>
       </c>
       <c r="C234" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235" s="12" t="s">
         <v>2351</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="12" t="s">
         <v>2352</v>
       </c>
       <c r="C235" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236" s="12" t="s">
         <v>2353</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="12" t="s">
         <v>2354</v>
       </c>
       <c r="C236" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="12" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="A237" s="12" t="s">
         <v>2355</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="12" t="s">
         <v>2356</v>
       </c>
       <c r="C237" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="12" t="s">
         <v>1936</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="A238" s="12" t="s">
         <v>2357</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="12" t="s">
         <v>2358</v>
       </c>
       <c r="C238" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="A239" s="12" t="s">
         <v>1839</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="12" t="s">
         <v>2359</v>
       </c>
       <c r="C239" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="12" t="s">
         <v>1803</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="A240" s="12" t="s">
         <v>2360</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="12" t="s">
         <v>2361</v>
       </c>
       <c r="C240" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="A241" s="12" t="s">
         <v>2362</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="12" t="s">
         <v>2363</v>
       </c>
       <c r="C241" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="12" t="s">
         <v>1927</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="A242" s="12" t="s">
         <v>2364</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="12" t="s">
         <v>2365</v>
       </c>
       <c r="C242" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="12" t="s">
         <v>1864</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="A243" s="12" t="s">
         <v>2366</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="12" t="s">
         <v>2367</v>
       </c>
       <c r="C243" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="12" t="s">
         <v>2123</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="A244" s="12" t="s">
         <v>2368</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="12" t="s">
         <v>2369</v>
       </c>
       <c r="C244" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="12" t="s">
         <v>2177</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245" s="12" t="s">
         <v>2578</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="12" t="s">
         <v>2370</v>
       </c>
       <c r="C245" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="12" t="s">
         <v>1918</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="A246" s="12" t="s">
         <v>2371</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="12" t="s">
         <v>2372</v>
       </c>
       <c r="C246" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="A247" s="12" t="s">
         <v>2373</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="12" t="s">
         <v>2374</v>
       </c>
       <c r="C247" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="A248" s="12" t="s">
         <v>2375</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="12" t="s">
         <v>2376</v>
       </c>
       <c r="C248" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="A249" s="12" t="s">
         <v>2377</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="12" t="s">
         <v>2378</v>
       </c>
       <c r="C249" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="12" t="s">
         <v>2177</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="A250" s="12" t="s">
         <v>2379</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="12" t="s">
         <v>2380</v>
       </c>
       <c r="C250" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="12" t="s">
         <v>1936</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="A251" s="12" t="s">
         <v>2381</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="12" t="s">
         <v>2382</v>
       </c>
       <c r="C251" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="A252" s="12" t="s">
         <v>2383</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="12" t="s">
         <v>2384</v>
       </c>
       <c r="C252" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="12" t="s">
         <v>1959</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="A253" s="12" t="s">
         <v>2385</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="12" t="s">
         <v>2386</v>
       </c>
       <c r="C253" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="A254" s="12" t="s">
         <v>2387</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="12" t="s">
         <v>2388</v>
       </c>
       <c r="C254" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="A255" s="12" t="s">
         <v>2389</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="12" t="s">
         <v>2390</v>
       </c>
       <c r="C255" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="12" t="s">
         <v>2030</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="A256" s="12" t="s">
         <v>2391</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="12" t="s">
         <v>2392</v>
       </c>
       <c r="C256" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="12" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="A257" s="12" t="s">
         <v>2393</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="12" t="s">
         <v>2394</v>
       </c>
       <c r="C257" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="12" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="A258" s="12" t="s">
         <v>2395</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="12" t="s">
         <v>2396</v>
       </c>
       <c r="C258" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="A259" s="12" t="s">
         <v>2397</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="12" t="s">
         <v>2398</v>
       </c>
       <c r="C259" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="A260" s="12" t="s">
         <v>2399</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="12" t="s">
         <v>2400</v>
       </c>
       <c r="C260" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="12" t="s">
         <v>1918</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="A261" s="12" t="s">
         <v>2401</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="12" t="s">
         <v>2402</v>
       </c>
       <c r="C261" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="12" t="s">
         <v>1959</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="A262" s="12" t="s">
         <v>2403</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="12" t="s">
         <v>2404</v>
       </c>
       <c r="C262" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="12" t="s">
         <v>1927</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="A263" s="12" t="s">
         <v>2405</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="12" t="s">
         <v>2406</v>
       </c>
       <c r="C263" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="12" t="s">
         <v>1803</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="A264" s="12" t="s">
         <v>2407</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="12" t="s">
         <v>2408</v>
       </c>
       <c r="C264" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="12" t="s">
         <v>1803</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="A265" s="12" t="s">
         <v>2409</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="12" t="s">
         <v>2410</v>
       </c>
       <c r="C265" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="12" t="s">
         <v>2000</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="A266" s="12" t="s">
         <v>2411</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="12" t="s">
         <v>2412</v>
       </c>
       <c r="C266" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="12" t="s">
         <v>1864</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="A267" s="12" t="s">
         <v>2413</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="12" t="s">
         <v>2414</v>
       </c>
       <c r="C267" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="12" t="s">
         <v>1864</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="A268" s="12" t="s">
         <v>2415</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="12" t="s">
         <v>2416</v>
       </c>
       <c r="C268" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="A269" s="12" t="s">
         <v>2417</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="12" t="s">
         <v>2418</v>
       </c>
       <c r="C269" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="12" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="A270" s="12" t="s">
         <v>2419</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="12" t="s">
         <v>2420</v>
       </c>
       <c r="C270" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="12" t="s">
         <v>2300</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="A271" s="12" t="s">
         <v>2421</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="12" t="s">
         <v>2422</v>
       </c>
       <c r="C271" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="A272" s="12" t="s">
         <v>2423</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="12" t="s">
         <v>2424</v>
       </c>
       <c r="C272" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="12" t="s">
         <v>1982</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="A273" s="12" t="s">
         <v>2425</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="12" t="s">
         <v>2426</v>
       </c>
       <c r="C273" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="A274" s="12" t="s">
         <v>2427</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="12" t="s">
         <v>2428</v>
       </c>
       <c r="C274" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="A275" s="12" t="s">
         <v>2429</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="12" t="s">
         <v>2430</v>
       </c>
       <c r="C275" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="A276" s="12" t="s">
         <v>2431</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="12" t="s">
         <v>2432</v>
       </c>
       <c r="C276" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="A277" s="12" t="s">
         <v>2433</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="12" t="s">
         <v>2434</v>
       </c>
       <c r="C277" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="A278" s="12" t="s">
         <v>2435</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="12" t="s">
         <v>2436</v>
       </c>
       <c r="C278" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="A279" s="12" t="s">
         <v>2437</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="12" t="s">
         <v>2438</v>
       </c>
       <c r="C279" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="12" t="s">
         <v>1918</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="A280" s="12" t="s">
         <v>2439</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="12" t="s">
         <v>2440</v>
       </c>
       <c r="C280" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="A281" s="12" t="s">
         <v>2441</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="12" t="s">
         <v>2442</v>
       </c>
       <c r="C281" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="12" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="A282" s="12" t="s">
         <v>2443</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="12" t="s">
         <v>2444</v>
       </c>
       <c r="C282" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="12" t="s">
         <v>2445</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="A283" s="12" t="s">
         <v>2446</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="12" t="s">
         <v>2447</v>
       </c>
       <c r="C283" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="A284" s="12" t="s">
         <v>2448</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="12" t="s">
         <v>2449</v>
       </c>
       <c r="C284" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="12" t="s">
         <v>1936</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="A285" s="12" t="s">
         <v>2450</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="12" t="s">
         <v>2451</v>
       </c>
       <c r="C285" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="12" t="s">
         <v>1982</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="A286" s="12" t="s">
         <v>2452</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="12" t="s">
         <v>2453</v>
       </c>
       <c r="C286" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="12" t="s">
         <v>2021</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="A287" s="12" t="s">
         <v>2454</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="12" t="s">
         <v>2455</v>
       </c>
       <c r="C287" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="12" t="s">
         <v>2073</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="A288" s="12" t="s">
         <v>2456</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="12" t="s">
         <v>2457</v>
       </c>
       <c r="C288" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="12" t="s">
         <v>2458</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="A289" s="12" t="s">
         <v>2459</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="12" t="s">
         <v>2460</v>
       </c>
       <c r="C289" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="A290" s="12" t="s">
         <v>2461</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="12" t="s">
         <v>2462</v>
       </c>
       <c r="C290" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="12" t="s">
         <v>2073</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="A291" s="12" t="s">
         <v>2463</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="12" t="s">
         <v>2464</v>
       </c>
       <c r="C291" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="12" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="A292" s="12" t="s">
         <v>2465</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="12" t="s">
         <v>2466</v>
       </c>
       <c r="C292" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="12" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="A293" s="12" t="s">
         <v>2467</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="12" t="s">
         <v>2468</v>
       </c>
       <c r="C293" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="12" t="s">
         <v>2062</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="A294" s="12" t="s">
         <v>2469</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="12" t="s">
         <v>2470</v>
       </c>
       <c r="C294" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="12" t="s">
         <v>1959</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="A295" s="12" t="s">
         <v>2471</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="12" t="s">
         <v>2472</v>
       </c>
       <c r="C295" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="12" t="s">
         <v>2473</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="A296" s="12" t="s">
         <v>2474</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="12" t="s">
         <v>2475</v>
       </c>
       <c r="C296" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="12" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="A297" s="12" t="s">
         <v>2476</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="12" t="s">
         <v>2477</v>
       </c>
       <c r="C297" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="12" t="s">
         <v>2018</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="A298" s="12" t="s">
         <v>2478</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="12" t="s">
         <v>2479</v>
       </c>
       <c r="C298" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="A299" s="12" t="s">
         <v>2480</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="12" t="s">
         <v>2481</v>
       </c>
       <c r="C299" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="A300" s="12" t="s">
         <v>2482</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="12" t="s">
         <v>2483</v>
       </c>
       <c r="C300" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="12" t="s">
         <v>1982</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="A301" s="12" t="s">
         <v>2484</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="12" t="s">
         <v>2485</v>
       </c>
       <c r="C301" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="12" t="s">
         <v>2055</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="A302" s="12" t="s">
         <v>2486</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="12" t="s">
         <v>2487</v>
       </c>
       <c r="C302" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="12" t="s">
         <v>1927</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="A303" s="12" t="s">
         <v>2488</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="12" t="s">
         <v>2489</v>
       </c>
       <c r="C303" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="A304" s="12" t="s">
         <v>2490</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="12" t="s">
         <v>2491</v>
       </c>
       <c r="C304" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="A305" s="12" t="s">
         <v>2492</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="12" t="s">
         <v>2493</v>
       </c>
       <c r="C305" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="A306" s="12" t="s">
         <v>2494</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="12" t="s">
         <v>2495</v>
       </c>
       <c r="C306" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="12" t="s">
         <v>1870</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="A307" s="12" t="s">
         <v>2496</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="12" t="s">
         <v>2497</v>
       </c>
       <c r="C307" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="12" t="s">
         <v>1891</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="A308" s="12" t="s">
         <v>2498</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="12" t="s">
         <v>2499</v>
       </c>
       <c r="C308" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="12" t="s">
         <v>1936</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="A309" s="12" t="s">
         <v>2500</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="12" t="s">
         <v>2501</v>
       </c>
       <c r="C309" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="12" t="s">
         <v>1927</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="A310" s="12" t="s">
         <v>2502</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="12" t="s">
         <v>2503</v>
       </c>
       <c r="C310" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="12" t="s">
         <v>1993</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="A311" s="12" t="s">
         <v>2504</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="12" t="s">
         <v>2505</v>
       </c>
       <c r="C311" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="A312" s="12" t="s">
         <v>2506</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="12" t="s">
         <v>2507</v>
       </c>
       <c r="C312" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="A313" s="12" t="s">
         <v>2508</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="12" t="s">
         <v>2509</v>
       </c>
       <c r="C313" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="12" t="s">
         <v>2300</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="A314" s="12" t="s">
         <v>2510</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="12" t="s">
         <v>2511</v>
       </c>
       <c r="C314" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="A315" s="12" t="s">
         <v>2512</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="12" t="s">
         <v>2513</v>
       </c>
       <c r="C315" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="12" t="s">
         <v>1897</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="A316" s="12" t="s">
         <v>2514</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="12" t="s">
         <v>2515</v>
       </c>
       <c r="C316" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="12" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="A317" s="12" t="s">
         <v>2516</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="12" t="s">
         <v>2517</v>
       </c>
       <c r="C317" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="A318" s="12" t="s">
         <v>2518</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="12" t="s">
         <v>2519</v>
       </c>
       <c r="C318" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="A319" s="12" t="s">
         <v>2520</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="12" t="s">
         <v>2521</v>
       </c>
       <c r="C319" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="12" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="A320" s="12" t="s">
         <v>2522</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="12" t="s">
         <v>2523</v>
       </c>
       <c r="C320" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="A321" s="12" t="s">
         <v>2524</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="12" t="s">
         <v>2525</v>
       </c>
       <c r="C321" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="A322" s="12" t="s">
         <v>1845</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="12" t="s">
         <v>2526</v>
       </c>
       <c r="C322" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="12" t="s">
         <v>1803</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="A323" s="12" t="s">
         <v>2527</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="12" t="s">
         <v>2528</v>
       </c>
       <c r="C323" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="12" t="s">
         <v>2279</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="A324" s="12" t="s">
         <v>2529</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="12" t="s">
         <v>2530</v>
       </c>
       <c r="C324" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="A325" s="12" t="s">
         <v>2531</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="12" t="s">
         <v>2532</v>
       </c>
       <c r="C325" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="12" t="s">
         <v>1918</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="A326" s="12" t="s">
         <v>2533</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="12" t="s">
         <v>2534</v>
       </c>
       <c r="C326" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326" s="12" t="s">
         <v>2177</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="A327" s="12" t="s">
         <v>2535</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="12" t="s">
         <v>2536</v>
       </c>
       <c r="C327" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="A328" s="12" t="s">
         <v>2579</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="12" t="s">
         <v>2537</v>
       </c>
       <c r="C328" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="12" t="s">
         <v>2445</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="A329" s="12" t="s">
         <v>2538</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="12" t="s">
         <v>2539</v>
       </c>
       <c r="C329" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="12" t="s">
         <v>1959</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="A330" s="12" t="s">
         <v>2540</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="12" t="s">
         <v>2541</v>
       </c>
       <c r="C330" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="A331" s="12" t="s">
         <v>2542</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="12" t="s">
         <v>2543</v>
       </c>
       <c r="C331" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="A332" s="12" t="s">
         <v>2544</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="12" t="s">
         <v>2545</v>
       </c>
       <c r="C332" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="A333" s="12" t="s">
         <v>2546</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="12" t="s">
         <v>2547</v>
       </c>
       <c r="C333" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333" s="12" t="s">
         <v>1927</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="A334" s="12" t="s">
         <v>2548</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="12" t="s">
         <v>2549</v>
       </c>
       <c r="C334" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334" s="12" t="s">
         <v>1803</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="A335" s="12" t="s">
         <v>2550</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="12" t="s">
         <v>2551</v>
       </c>
       <c r="C335" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="12" t="s">
         <v>1870</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="A336" s="12" t="s">
         <v>2552</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="12" t="s">
         <v>2553</v>
       </c>
       <c r="C336" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336" s="12" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="A337" s="12" t="s">
         <v>2554</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="12" t="s">
         <v>2555</v>
       </c>
       <c r="C337" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="12" t="s">
         <v>1959</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="A338" s="12" t="s">
         <v>2556</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="12" t="s">
         <v>2557</v>
       </c>
       <c r="C338" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D338" s="12" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="A339" s="12" t="s">
         <v>2558</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="12" t="s">
         <v>2559</v>
       </c>
       <c r="C339" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="A340" s="12" t="s">
         <v>2560</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="12" t="s">
         <v>2561</v>
       </c>
       <c r="C340" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="12" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="A341" s="12" t="s">
         <v>2562</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="12" t="s">
         <v>2563</v>
       </c>
       <c r="C341" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="A342" s="12" t="s">
         <v>2564</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="12" t="s">
         <v>2565</v>
       </c>
       <c r="C342" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="12" t="s">
         <v>2055</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="A343" s="12" t="s">
         <v>1850</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="12" t="s">
         <v>2566</v>
       </c>
       <c r="C343" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="12" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="A344" s="12" t="s">
         <v>2567</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="12" t="s">
         <v>2568</v>
       </c>
       <c r="C344" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="12" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="A345" s="12" t="s">
         <v>2569</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="12" t="s">
         <v>2570</v>
       </c>
       <c r="C345" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="12" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="A346" s="12" t="s">
         <v>2571</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="12" t="s">
         <v>2572</v>
       </c>
       <c r="C346" s="12" t="s">
         <v>1854</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="12" t="s">
         <v>1857</v>
       </c>
     </row>
-    <row r="347" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="12" t="s">
         <v>1874</v>
       </c>
@@ -16540,13 +16579,97 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16611,7 +16734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A797" workbookViewId="0">
+    <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="D819" sqref="D819"/>
     </sheetView>
   </sheetViews>
